--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585B10A-041A-4FC6-A958-3906D7EA30E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D2F49-9A35-4B86-B868-0E5E599F6B16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="276" yWindow="264" windowWidth="16224" windowHeight="11388" xr2:uid="{EC152A6D-9151-47AE-85CD-1B8604A27C27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="251">
   <si>
     <t>1st node to die</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Energy Consumed Quota LEACH/MPC</t>
   </si>
   <si>
-    <t>Data Received [Packets]</t>
-  </si>
-  <si>
     <t>Energy Consumed [J]</t>
   </si>
   <si>
@@ -226,6 +223,567 @@
   </si>
   <si>
     <t>3862/10943</t>
+  </si>
+  <si>
+    <t>0.6688</t>
+  </si>
+  <si>
+    <t>0.6137</t>
+  </si>
+  <si>
+    <t>2.3861</t>
+  </si>
+  <si>
+    <t>3.5675</t>
+  </si>
+  <si>
+    <t>3432/10577</t>
+  </si>
+  <si>
+    <t>5597/7752</t>
+  </si>
+  <si>
+    <t>0.6002</t>
+  </si>
+  <si>
+    <t>0.6395</t>
+  </si>
+  <si>
+    <t>3.2787</t>
+  </si>
+  <si>
+    <t>2.0968</t>
+  </si>
+  <si>
+    <t>5300/7514</t>
+  </si>
+  <si>
+    <t>2872/10885</t>
+  </si>
+  <si>
+    <t>0.6961</t>
+  </si>
+  <si>
+    <t>0.6287</t>
+  </si>
+  <si>
+    <t>4.0669</t>
+  </si>
+  <si>
+    <t>2.8308</t>
+  </si>
+  <si>
+    <t>3063/10172</t>
+  </si>
+  <si>
+    <t>4826/10172</t>
+  </si>
+  <si>
+    <t>0.6242</t>
+  </si>
+  <si>
+    <t>0.6994</t>
+  </si>
+  <si>
+    <t>3.8010</t>
+  </si>
+  <si>
+    <t>2.6584</t>
+  </si>
+  <si>
+    <t>5476/7674</t>
+  </si>
+  <si>
+    <t>4018/10535</t>
+  </si>
+  <si>
+    <t>0.6472</t>
+  </si>
+  <si>
+    <t>0.7035</t>
+  </si>
+  <si>
+    <t>4.4716</t>
+  </si>
+  <si>
+    <t>3.1459</t>
+  </si>
+  <si>
+    <t>4890/7461</t>
+  </si>
+  <si>
+    <t>3674/10505</t>
+  </si>
+  <si>
+    <t>0.6120</t>
+  </si>
+  <si>
+    <t>0.6359</t>
+  </si>
+  <si>
+    <t>3.5355</t>
+  </si>
+  <si>
+    <t>2.2482</t>
+  </si>
+  <si>
+    <t>2759/9784</t>
+  </si>
+  <si>
+    <t>5351/7643</t>
+  </si>
+  <si>
+    <t>0.6191</t>
+  </si>
+  <si>
+    <t>0.6692</t>
+  </si>
+  <si>
+    <t>3.7898</t>
+  </si>
+  <si>
+    <t>2.5359</t>
+  </si>
+  <si>
+    <t>3311/10091</t>
+  </si>
+  <si>
+    <t>5301/7678</t>
+  </si>
+  <si>
+    <t>0.6261</t>
+  </si>
+  <si>
+    <t>2.3766</t>
+  </si>
+  <si>
+    <t>3.4964</t>
+  </si>
+  <si>
+    <t>5375/7804</t>
+  </si>
+  <si>
+    <t>4498/10188</t>
+  </si>
+  <si>
+    <t>0.6488</t>
+  </si>
+  <si>
+    <t>0.6156</t>
+  </si>
+  <si>
+    <t>3.4849</t>
+  </si>
+  <si>
+    <t>3196/9666</t>
+  </si>
+  <si>
+    <t>2.2609</t>
+  </si>
+  <si>
+    <t>5397/7489</t>
+  </si>
+  <si>
+    <t>0.7326</t>
+  </si>
+  <si>
+    <t>0.6655</t>
+  </si>
+  <si>
+    <t>4.7086</t>
+  </si>
+  <si>
+    <t>3.4498</t>
+  </si>
+  <si>
+    <t>5481/7690</t>
+  </si>
+  <si>
+    <t>0.6254</t>
+  </si>
+  <si>
+    <t>0.6770</t>
+  </si>
+  <si>
+    <t>3.7299</t>
+  </si>
+  <si>
+    <t>2.5250</t>
+  </si>
+  <si>
+    <t>5204/7862</t>
+  </si>
+  <si>
+    <t>0.6170</t>
+  </si>
+  <si>
+    <t>0.6547</t>
+  </si>
+  <si>
+    <t>3.4429</t>
+  </si>
+  <si>
+    <t>2.2540</t>
+  </si>
+  <si>
+    <t>5336/7718</t>
+  </si>
+  <si>
+    <t>3193/10883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6158</t>
+  </si>
+  <si>
+    <t>0.6329</t>
+  </si>
+  <si>
+    <t>3.4759</t>
+  </si>
+  <si>
+    <t>2.2000</t>
+  </si>
+  <si>
+    <t>5250/7594</t>
+  </si>
+  <si>
+    <t>3436/9916</t>
+  </si>
+  <si>
+    <t>0.6196</t>
+  </si>
+  <si>
+    <t>0.6636</t>
+  </si>
+  <si>
+    <t>3.2858</t>
+  </si>
+  <si>
+    <t>2.1805</t>
+  </si>
+  <si>
+    <t>5126/7696</t>
+  </si>
+  <si>
+    <t>3442/10093</t>
+  </si>
+  <si>
+    <t>0.6059</t>
+  </si>
+  <si>
+    <t>0.6531</t>
+  </si>
+  <si>
+    <t>3.2837</t>
+  </si>
+  <si>
+    <t>3122/10245</t>
+  </si>
+  <si>
+    <t>2.1445</t>
+  </si>
+  <si>
+    <t>5373/7630</t>
+  </si>
+  <si>
+    <t>0.6147</t>
+  </si>
+  <si>
+    <t>0.6734</t>
+  </si>
+  <si>
+    <t>3.2451</t>
+  </si>
+  <si>
+    <t>3584/10222</t>
+  </si>
+  <si>
+    <t>2.1852</t>
+  </si>
+  <si>
+    <t>5284/7616</t>
+  </si>
+  <si>
+    <t>Data Received [Bits]</t>
+  </si>
+  <si>
+    <t>0.6919</t>
+  </si>
+  <si>
+    <t>0.6142</t>
+  </si>
+  <si>
+    <t>3.5570</t>
+  </si>
+  <si>
+    <t>2896/10395</t>
+  </si>
+  <si>
+    <t>2.4612</t>
+  </si>
+  <si>
+    <t>5212/7729</t>
+  </si>
+  <si>
+    <t>0.6936</t>
+  </si>
+  <si>
+    <t>3.7454</t>
+  </si>
+  <si>
+    <t>3624/10346</t>
+  </si>
+  <si>
+    <t>2.5978</t>
+  </si>
+  <si>
+    <t>5524/7915</t>
+  </si>
+  <si>
+    <t>0.6735</t>
+  </si>
+  <si>
+    <t>0.6135</t>
+  </si>
+  <si>
+    <t>3.7283</t>
+  </si>
+  <si>
+    <t>3870/11601</t>
+  </si>
+  <si>
+    <t>2.5111</t>
+  </si>
+  <si>
+    <t>5272/7719</t>
+  </si>
+  <si>
+    <t>0.6603</t>
+  </si>
+  <si>
+    <t>0.6124</t>
+  </si>
+  <si>
+    <t>3.7254</t>
+  </si>
+  <si>
+    <t>3604/10294</t>
+  </si>
+  <si>
+    <t>2.4598</t>
+  </si>
+  <si>
+    <t>4767/7657</t>
+  </si>
+  <si>
+    <t>0.6800</t>
+  </si>
+  <si>
+    <t>0.6186</t>
+  </si>
+  <si>
+    <t>3.4519</t>
+  </si>
+  <si>
+    <t>3606/10323</t>
+  </si>
+  <si>
+    <t>2.3472</t>
+  </si>
+  <si>
+    <t>4644/7697</t>
+  </si>
+  <si>
+    <t>0.6641</t>
+  </si>
+  <si>
+    <t>0.6179</t>
+  </si>
+  <si>
+    <t>3.6260</t>
+  </si>
+  <si>
+    <t>3628/9953</t>
+  </si>
+  <si>
+    <t>2.4080</t>
+  </si>
+  <si>
+    <t>4974/7549</t>
+  </si>
+  <si>
+    <t>0.7005</t>
+  </si>
+  <si>
+    <t>0.6300</t>
+  </si>
+  <si>
+    <t>2.6058</t>
+  </si>
+  <si>
+    <t>2568/10536</t>
+  </si>
+  <si>
+    <t>1.8252</t>
+  </si>
+  <si>
+    <t>5157/7560</t>
+  </si>
+  <si>
+    <t>0.6367</t>
+  </si>
+  <si>
+    <t>3.3770</t>
+  </si>
+  <si>
+    <t>3376/9606</t>
+  </si>
+  <si>
+    <t>2.1500</t>
+  </si>
+  <si>
+    <t>5138/7352</t>
+  </si>
+  <si>
+    <t>0.5902</t>
+  </si>
+  <si>
+    <t>0.6338</t>
+  </si>
+  <si>
+    <t>2.8434</t>
+  </si>
+  <si>
+    <t>2171/9295</t>
+  </si>
+  <si>
+    <t>1.6783</t>
+  </si>
+  <si>
+    <t>5602/7591</t>
+  </si>
+  <si>
+    <t>0.5873</t>
+  </si>
+  <si>
+    <t>3.3893</t>
+  </si>
+  <si>
+    <t>3820/9621</t>
+  </si>
+  <si>
+    <t>1.9907</t>
+  </si>
+  <si>
+    <t>5146/7663</t>
+  </si>
+  <si>
+    <t>0.5231</t>
+  </si>
+  <si>
+    <t>0.6088</t>
+  </si>
+  <si>
+    <t>2.5891</t>
+  </si>
+  <si>
+    <t>2752/8645</t>
+  </si>
+  <si>
+    <t>1.3542</t>
+  </si>
+  <si>
+    <t>4772/7471</t>
+  </si>
+  <si>
+    <t>0.6087</t>
+  </si>
+  <si>
+    <t>0.5377</t>
+  </si>
+  <si>
+    <t>2.5332</t>
+  </si>
+  <si>
+    <t>2793/9091</t>
+  </si>
+  <si>
+    <t>1.3620</t>
+  </si>
+  <si>
+    <t>5101/7429</t>
+  </si>
+  <si>
+    <t>0.4868</t>
+  </si>
+  <si>
+    <t>0.5967</t>
+  </si>
+  <si>
+    <t>1.9599</t>
+  </si>
+  <si>
+    <t>2470/8864</t>
+  </si>
+  <si>
+    <t>0.9541</t>
+  </si>
+  <si>
+    <t>5548/7485</t>
+  </si>
+  <si>
+    <t>0.5663</t>
+  </si>
+  <si>
+    <t>0.6260</t>
+  </si>
+  <si>
+    <t>3.2085</t>
+  </si>
+  <si>
+    <t>1.8170</t>
+  </si>
+  <si>
+    <t>3408/8674</t>
+  </si>
+  <si>
+    <t>4676/7554</t>
+  </si>
+  <si>
+    <t>0.5984</t>
+  </si>
+  <si>
+    <t>0.6194</t>
+  </si>
+  <si>
+    <t>3.1217</t>
+  </si>
+  <si>
+    <t>3680/9475</t>
+  </si>
+  <si>
+    <t>1.8680</t>
+  </si>
+  <si>
+    <t>5144/7734</t>
+  </si>
+  <si>
+    <t>0.5230</t>
+  </si>
+  <si>
+    <t>0.6080</t>
+  </si>
+  <si>
+    <t>2.5699</t>
+  </si>
+  <si>
+    <t>2673/9486</t>
+  </si>
+  <si>
+    <t>1.3441</t>
+  </si>
+  <si>
+    <t>4995/7642</t>
   </si>
 </sst>
 </file>
@@ -631,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EEE0-1192-49BC-9381-D8B093C7E0F2}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,36 +1224,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -716,18 +1274,35 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>24450000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>149</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7798</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="7">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -738,34 +1313,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
-        <v>24450000</v>
+        <v>23937000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
-        <v>7798</v>
+        <v>7772</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -776,34 +1351,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6">
-        <v>23937000</v>
+        <v>30108000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
-        <v>7772</v>
+        <v>8031</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J6" s="6">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -814,34 +1389,34 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30108000</v>
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20095000</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7">
-        <v>188</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8031</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="6">
+        <v>126</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7822</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -852,34 +1427,34 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7">
-        <v>20095000</v>
+        <v>42</v>
+      </c>
+      <c r="E8" s="6">
+        <v>22971000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H8" s="6">
-        <v>7822</v>
+        <v>7898</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J8" s="6">
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -890,34 +1465,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6">
-        <v>22971000</v>
+        <v>28592000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" s="6">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="H9" s="6">
-        <v>7898</v>
+        <v>7935</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J9" s="6">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -928,34 +1503,34 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6">
-        <v>28592000</v>
+        <v>24132000</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" s="6">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="H10" s="6">
-        <v>7935</v>
+        <v>7921</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J10" s="6">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -966,81 +1541,72 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="6">
-        <v>24132000</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="7">
+        <v>23797000</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H11" s="6">
-        <v>7921</v>
+        <v>8025</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J11" s="8">
         <v>10</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="7">
-        <v>23797000</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="6">
-        <v>147</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8025</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>27043000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6">
+        <v>166</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7919</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1050,20 +1616,35 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="7">
+        <v>23480000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="6">
+        <v>141</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7618</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1073,21 +1654,35 @@
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7">
+        <v>30519000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="6">
+        <v>192</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7794</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -1097,21 +1692,35 @@
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>29315000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7">
+        <v>183</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7942</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1121,20 +1730,35 @@
       <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>32423000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7">
+        <v>210</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7520</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1144,20 +1768,35 @@
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>24973000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6">
+        <v>153</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7556</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1167,20 +1806,35 @@
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>27958000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7">
+        <v>173</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7713</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1190,21 +1844,35 @@
       <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6">
+        <v>26190000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7">
+        <v>164</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7781</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1212,11 +1880,6 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1226,21 +1889,35 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="6">
+        <v>24352000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7">
+        <v>150</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7439</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -1250,21 +1927,33 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="6">
+        <v>35518000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="7">
+        <v>237</v>
+      </c>
+      <c r="H23" s="6">
+        <v>7543</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6">
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -1274,21 +1963,33 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="6">
+        <v>27657000</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7">
+        <v>173</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7415</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6">
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -1298,21 +1999,35 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="6">
+        <v>25077000</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7">
+        <v>155</v>
+      </c>
+      <c r="H25" s="6">
+        <v>7668</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -1322,21 +2037,35 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6">
+        <v>24046000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7371</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -1346,21 +2075,35 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="6">
+        <v>23882000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="7">
+        <v>148</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7648</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -1370,21 +2113,35 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="6">
+        <v>23737000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="7">
+        <v>144</v>
+      </c>
+      <c r="H28" s="7">
+        <v>7642</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -1394,21 +2151,35 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="6">
+        <v>24110000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="7">
+        <v>148</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7779</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -1416,13 +2187,6 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="L30" s="3"/>
     </row>
@@ -1430,21 +2194,35 @@
       <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="6">
+        <v>27345000</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="7">
+        <v>168</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7973</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -1454,21 +2232,35 @@
       <c r="B32" s="5">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="6">
+        <v>29210000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="7">
+        <v>181</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8013</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -1478,21 +2270,35 @@
       <c r="B33" s="5">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="6">
+        <v>28355000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="7">
+        <v>174</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7876</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -1502,21 +2308,35 @@
       <c r="B34" s="5">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="6">
+        <v>27588000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="7">
+        <v>169</v>
+      </c>
+      <c r="H34" s="7">
+        <v>7804</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -1526,21 +2346,35 @@
       <c r="B35" s="5">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="6">
+        <v>25233000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="7">
+        <v>156</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7620</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -1550,21 +2384,35 @@
       <c r="B36" s="5">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="6">
+        <v>26033000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="7">
+        <v>161</v>
+      </c>
+      <c r="H36" s="7">
+        <v>7523</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -1574,21 +2422,35 @@
       <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="6">
+        <v>19838000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="7">
+        <v>125</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7859</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -1598,21 +2460,35 @@
       <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="6">
+        <v>22931000</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="7">
+        <v>141</v>
+      </c>
+      <c r="H38" s="7">
+        <v>7206</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -1631,21 +2507,35 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="6">
+        <v>18301000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="7">
+        <v>116</v>
+      </c>
+      <c r="H40" s="7">
+        <v>6896</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -1655,21 +2545,35 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="6">
+        <v>22385000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="7">
+        <v>137</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6949</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -1679,21 +2583,35 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="6">
+        <v>14757000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="7">
+        <v>90</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6023</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -1703,21 +2621,35 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="6">
+        <v>14599000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="7">
+        <v>89</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6158</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -1727,21 +2659,35 @@
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10695000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="7">
+        <v>64</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5853</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -1751,21 +2697,35 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="6">
+        <v>19485000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="7">
+        <v>122</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6357</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
       <c r="K45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45" s="7">
         <v>5</v>
@@ -1775,21 +2735,35 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20640000</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="7">
+        <v>128</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6933</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -1799,21 +2773,35 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="6">
+        <v>14940000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="7">
+        <v>91</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6345</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -1830,7 +2818,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1847,7 +2835,7 @@
         <v>14900000</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" s="7">
         <v>149</v>
@@ -1856,14 +2844,14 @@
         <v>6891</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -1877,7 +2865,7 @@
         <v>14600000</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="7">
         <v>146</v>
@@ -1886,13 +2874,13 @@
         <v>6996</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" s="7">
         <v>5</v>
@@ -1906,7 +2894,7 @@
         <v>18800000</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" s="7">
         <v>188</v>
@@ -1915,13 +2903,13 @@
         <v>6922</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M52" s="7">
         <v>5</v>
@@ -1935,7 +2923,7 @@
         <v>12600000</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" s="7">
         <v>126</v>
@@ -1944,13 +2932,13 @@
         <v>6788</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -1964,7 +2952,7 @@
         <v>14200000</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" s="7">
         <v>142</v>
@@ -1973,13 +2961,13 @@
         <v>6803</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54" s="7">
         <v>5</v>
@@ -1993,7 +2981,7 @@
         <v>17800000</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G55" s="7">
         <v>178</v>
@@ -2002,13 +2990,13 @@
         <v>6887</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55" s="7">
         <v>5</v>
@@ -2022,7 +3010,7 @@
         <v>14600000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="7">
         <v>146</v>
@@ -2031,13 +3019,13 @@
         <v>6978</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -2051,7 +3039,7 @@
         <v>14700000</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="7">
         <v>147</v>
@@ -2060,13 +3048,13 @@
         <v>6981</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M57" s="7">
         <v>5</v>
@@ -2079,14 +3067,26 @@
       <c r="B59" s="4">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="E59" s="7">
+        <v>16600000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="7">
+        <v>166</v>
+      </c>
+      <c r="H59">
+        <v>6940</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="K59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -2096,14 +3096,26 @@
       <c r="B60" s="4">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="3"/>
+      <c r="E60">
+        <v>14100000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="7">
+        <v>141</v>
+      </c>
+      <c r="H60">
+        <v>6722</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60" s="7">
         <v>5</v>
@@ -2113,14 +3125,26 @@
       <c r="B61" s="4">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="I61" s="3"/>
+      <c r="E61">
+        <v>19200000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="7">
+        <v>192</v>
+      </c>
+      <c r="H61">
+        <v>6792</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="K61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -2130,14 +3154,26 @@
       <c r="B62" s="4">
         <v>12</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="3"/>
+      <c r="E62">
+        <v>18300000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="7">
+        <v>183</v>
+      </c>
+      <c r="H62">
+        <v>6877</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="K62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
@@ -2147,14 +3183,26 @@
       <c r="B63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63">
+        <v>20998000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="7">
+        <v>210</v>
+      </c>
+      <c r="H63">
+        <v>6685</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="K63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M63" s="7">
         <v>5</v>
@@ -2164,14 +3212,26 @@
       <c r="B64" s="4">
         <v>14</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="E64">
+        <v>15300000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="7">
+        <v>153</v>
+      </c>
+      <c r="H64">
+        <v>6793</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64" s="7">
         <v>5</v>
@@ -2181,14 +3241,26 @@
       <c r="B65" s="4">
         <v>15</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="3"/>
+      <c r="E65">
+        <v>17300000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="7">
+        <v>173</v>
+      </c>
+      <c r="H65">
+        <v>6817</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="K65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -2198,14 +3270,26 @@
       <c r="B66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="I66" s="3"/>
+      <c r="E66">
+        <v>16400000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="7">
+        <v>164</v>
+      </c>
+      <c r="H66">
+        <v>6896</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66" s="7">
         <v>5</v>
@@ -2221,14 +3305,26 @@
       <c r="B68" s="4">
         <v>17</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
-      <c r="I68" s="3"/>
+      <c r="E68">
+        <v>15000000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="7">
+        <v>150</v>
+      </c>
+      <c r="H68">
+        <v>6620</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M68" s="7">
         <v>5</v>
@@ -2238,14 +3334,26 @@
       <c r="B69" s="4">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
-      <c r="I69" s="3"/>
+      <c r="E69">
+        <v>23698000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="7">
+        <v>237</v>
+      </c>
+      <c r="H69">
+        <v>6875</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="K69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M69" s="7">
         <v>5</v>
@@ -2255,14 +3363,26 @@
       <c r="B70" s="4">
         <v>19</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="I70" s="3"/>
+      <c r="E70">
+        <v>17300000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="7">
+        <v>173</v>
+      </c>
+      <c r="H70">
+        <v>6851</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M70" s="7">
         <v>5</v>
@@ -2272,14 +3392,26 @@
       <c r="B71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
-      <c r="I71" s="3"/>
+      <c r="E71">
+        <v>15500000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="7">
+        <v>155</v>
+      </c>
+      <c r="H71">
+        <v>6867</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="K71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M71" s="7">
         <v>5</v>
@@ -2289,14 +3421,26 @@
       <c r="B72" s="4">
         <v>21</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
-      <c r="I72" s="3"/>
+      <c r="E72">
+        <v>14800000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="7">
+        <v>148</v>
+      </c>
+      <c r="H72">
+        <v>6713</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="K72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -2306,14 +3450,26 @@
       <c r="B73" s="4">
         <v>22</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="I73" s="3"/>
+      <c r="E73">
+        <v>14800000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="7">
+        <v>148</v>
+      </c>
+      <c r="H73">
+        <v>6778</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="K73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M73" s="7">
         <v>5</v>
@@ -2323,14 +3479,26 @@
       <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="I74" s="3"/>
+      <c r="E74">
+        <v>14400000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="7">
+        <v>144</v>
+      </c>
+      <c r="H74">
+        <v>6704</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M74" s="7">
         <v>5</v>
@@ -2340,14 +3508,26 @@
       <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="3"/>
+      <c r="E75">
+        <v>14800000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="7">
+        <v>148</v>
+      </c>
+      <c r="H75">
+        <v>6770</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="K75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M75" s="7">
         <v>5</v>
@@ -2364,14 +3544,26 @@
       <c r="B77" s="5">
         <v>25</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="3"/>
+      <c r="E77">
+        <v>16800000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="7">
+        <v>168</v>
+      </c>
+      <c r="H77">
+        <v>6823</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M77" s="7">
         <v>5</v>
@@ -2382,14 +3574,26 @@
         <v>26</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="3"/>
+      <c r="E78">
+        <v>18100000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" s="7">
+        <v>181</v>
+      </c>
+      <c r="H78">
+        <v>6964</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="K78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M78" s="7">
         <v>5</v>
@@ -2400,14 +3604,26 @@
         <v>27</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
-      <c r="I79" s="3"/>
+      <c r="E79">
+        <v>17400000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" s="7">
+        <v>174</v>
+      </c>
+      <c r="H79">
+        <v>6923</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M79" s="7">
         <v>5</v>
@@ -2418,14 +3634,26 @@
         <v>28</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="3"/>
+      <c r="E80">
+        <v>16900000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="7">
+        <v>169</v>
+      </c>
+      <c r="H80">
+        <v>6864</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="K80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M80" s="7">
         <v>5</v>
@@ -2436,14 +3664,26 @@
         <v>29</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
-      <c r="I81" s="3"/>
+      <c r="E81">
+        <v>15600000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G81" s="7">
+        <v>156</v>
+      </c>
+      <c r="H81">
+        <v>6655</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="K81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M81" s="7">
         <v>5</v>
@@ -2454,14 +3694,26 @@
         <v>30</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
-      <c r="I82" s="3"/>
+      <c r="E82">
+        <v>16100000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="7">
+        <v>161</v>
+      </c>
+      <c r="H82">
+        <v>6678</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="K82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M82" s="7">
         <v>5</v>
@@ -2472,14 +3724,26 @@
         <v>31</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
-      <c r="I83" s="3"/>
+      <c r="E83">
+        <v>12500000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="7">
+        <v>125</v>
+      </c>
+      <c r="H83">
+        <v>6837</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M83" s="7">
         <v>5</v>
@@ -2490,14 +3754,26 @@
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
-      <c r="I84" s="3"/>
+      <c r="E84">
+        <v>14100000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="7">
+        <v>141</v>
+      </c>
+      <c r="H84">
+        <v>6550</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="K84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M84" s="7">
         <v>5</v>
@@ -2515,14 +3791,26 @@
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="3"/>
+      <c r="E86">
+        <v>11600000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="7">
+        <v>116</v>
+      </c>
+      <c r="H86">
+        <v>6883</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="K86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M86" s="7">
         <v>5</v>
@@ -2533,14 +3821,26 @@
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
-      <c r="I87" s="3"/>
+      <c r="E87">
+        <v>13700000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G87" s="7">
+        <v>137</v>
+      </c>
+      <c r="H87">
+        <v>6868</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="K87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M87" s="7">
         <v>5</v>
@@ -2551,14 +3851,26 @@
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="3"/>
+      <c r="E88">
+        <v>9000000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G88" s="7">
+        <v>90</v>
+      </c>
+      <c r="H88">
+        <v>6626</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="K88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M88" s="7">
         <v>5</v>
@@ -2569,14 +3881,26 @@
         <v>36</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
-      <c r="I89" s="3"/>
+      <c r="E89">
+        <v>8900000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="7">
+        <v>89</v>
+      </c>
+      <c r="H89">
+        <v>6508</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="K89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M89" s="7">
         <v>5</v>
@@ -2587,14 +3911,26 @@
         <v>37</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
-      <c r="I90" s="3"/>
+      <c r="E90">
+        <v>6400000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" s="7">
+        <v>64</v>
+      </c>
+      <c r="H90">
+        <v>6633</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="K90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M90" s="7">
         <v>5</v>
@@ -2605,14 +3941,26 @@
         <v>38</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
-      <c r="I91" s="3"/>
+      <c r="E91">
+        <v>12200000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="7">
+        <v>122</v>
+      </c>
+      <c r="H91">
+        <v>6703</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M91" s="7">
         <v>5</v>
@@ -2623,14 +3971,26 @@
         <v>39</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
-      <c r="I92" s="3"/>
+      <c r="E92">
+        <v>12800000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="7">
+        <v>128</v>
+      </c>
+      <c r="H92">
+        <v>6843</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="K92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M92" s="7">
         <v>5</v>
@@ -2641,14 +4001,26 @@
         <v>40</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
-      <c r="I93" s="3"/>
+      <c r="E93">
+        <v>9100000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93" s="7">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>6744</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="K93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" s="7">
         <v>5</v>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF58347-F925-42C1-9327-1EC87774FDD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB8B06-124C-4857-930D-3C0AC42CAEE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{EC152A6D-9151-47AE-85CD-1B8604A27C27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
   <si>
     <t>1st node to die</t>
   </si>
@@ -223,6 +223,546 @@
   </si>
   <si>
     <t>5328/7624</t>
+  </si>
+  <si>
+    <t>0.7943</t>
+  </si>
+  <si>
+    <t>0.6228</t>
+  </si>
+  <si>
+    <t>4.1907</t>
+  </si>
+  <si>
+    <t>4629/10510</t>
+  </si>
+  <si>
+    <t>3.3288</t>
+  </si>
+  <si>
+    <t>4707/7639</t>
+  </si>
+  <si>
+    <t>0.7835</t>
+  </si>
+  <si>
+    <t>0.6189</t>
+  </si>
+  <si>
+    <t>3.8976</t>
+  </si>
+  <si>
+    <t>5508/10654</t>
+  </si>
+  <si>
+    <t>3.0537</t>
+  </si>
+  <si>
+    <t>5122/7551</t>
+  </si>
+  <si>
+    <t>0.7978</t>
+  </si>
+  <si>
+    <t>0.6270</t>
+  </si>
+  <si>
+    <t>4.0193</t>
+  </si>
+  <si>
+    <t>5785/10628</t>
+  </si>
+  <si>
+    <t>3.2065</t>
+  </si>
+  <si>
+    <t>5290/7719</t>
+  </si>
+  <si>
+    <t>0.8017</t>
+  </si>
+  <si>
+    <t>0.6223</t>
+  </si>
+  <si>
+    <t>4.0747</t>
+  </si>
+  <si>
+    <t>5795/10600</t>
+  </si>
+  <si>
+    <t>3.2667</t>
+  </si>
+  <si>
+    <t>5228/7578</t>
+  </si>
+  <si>
+    <t>0.7903</t>
+  </si>
+  <si>
+    <t>0.6196</t>
+  </si>
+  <si>
+    <t>4.1853</t>
+  </si>
+  <si>
+    <t>4873/10764</t>
+  </si>
+  <si>
+    <t>3.3078</t>
+  </si>
+  <si>
+    <t>4938/7876</t>
+  </si>
+  <si>
+    <t>0.7963</t>
+  </si>
+  <si>
+    <t>0.6154</t>
+  </si>
+  <si>
+    <t>4.1129</t>
+  </si>
+  <si>
+    <t>4673/11160</t>
+  </si>
+  <si>
+    <t>3.2749</t>
+  </si>
+  <si>
+    <t>5247/7810</t>
+  </si>
+  <si>
+    <t>0.7967</t>
+  </si>
+  <si>
+    <t>0.6230</t>
+  </si>
+  <si>
+    <t>4.1333</t>
+  </si>
+  <si>
+    <t>4330/10390</t>
+  </si>
+  <si>
+    <t>3.2932</t>
+  </si>
+  <si>
+    <t>4780/7633</t>
+  </si>
+  <si>
+    <t>0.8028</t>
+  </si>
+  <si>
+    <t>0.6221</t>
+  </si>
+  <si>
+    <t>3.6701</t>
+  </si>
+  <si>
+    <t>6111/11165</t>
+  </si>
+  <si>
+    <t>2.9465</t>
+  </si>
+  <si>
+    <t>5404/8045</t>
+  </si>
+  <si>
+    <t>0.7959</t>
+  </si>
+  <si>
+    <t>0.6194</t>
+  </si>
+  <si>
+    <t>3.7512</t>
+  </si>
+  <si>
+    <t>4593/10581</t>
+  </si>
+  <si>
+    <t>2.9854</t>
+  </si>
+  <si>
+    <t>5125/7681</t>
+  </si>
+  <si>
+    <t>3.9960</t>
+  </si>
+  <si>
+    <t>5938/10884</t>
+  </si>
+  <si>
+    <t>3.1579</t>
+  </si>
+  <si>
+    <t>5041/7805</t>
+  </si>
+  <si>
+    <t>0.7846</t>
+  </si>
+  <si>
+    <t>0.6208</t>
+  </si>
+  <si>
+    <t>4.2548</t>
+  </si>
+  <si>
+    <t>5347/10422</t>
+  </si>
+  <si>
+    <t>3.3383</t>
+  </si>
+  <si>
+    <t>4659/7565</t>
+  </si>
+  <si>
+    <t>0.8021</t>
+  </si>
+  <si>
+    <t>0.6333</t>
+  </si>
+  <si>
+    <t>4.2748</t>
+  </si>
+  <si>
+    <t>5864/10432</t>
+  </si>
+  <si>
+    <t>3.4290</t>
+  </si>
+  <si>
+    <t>5351/7621</t>
+  </si>
+  <si>
+    <t>0.8058</t>
+  </si>
+  <si>
+    <t>0.6222</t>
+  </si>
+  <si>
+    <t>3.7114</t>
+  </si>
+  <si>
+    <t>5807/10507</t>
+  </si>
+  <si>
+    <t>2.9905</t>
+  </si>
+  <si>
+    <t>5437/7754</t>
+  </si>
+  <si>
+    <t>0.8108</t>
+  </si>
+  <si>
+    <t>0.6340</t>
+  </si>
+  <si>
+    <t>4.0090</t>
+  </si>
+  <si>
+    <t>5065/10472</t>
+  </si>
+  <si>
+    <t>3.2504</t>
+  </si>
+  <si>
+    <t>5566/7758</t>
+  </si>
+  <si>
+    <t>0.8010</t>
+  </si>
+  <si>
+    <t>4.0657</t>
+  </si>
+  <si>
+    <t>5820/10250</t>
+  </si>
+  <si>
+    <t>3.2565</t>
+  </si>
+  <si>
+    <t>5028/7861</t>
+  </si>
+  <si>
+    <t>0.8068</t>
+  </si>
+  <si>
+    <t>0.6326</t>
+  </si>
+  <si>
+    <t>3.7847</t>
+  </si>
+  <si>
+    <t>5032/10809</t>
+  </si>
+  <si>
+    <t>5191/7734</t>
+  </si>
+  <si>
+    <t>0.7818</t>
+  </si>
+  <si>
+    <t>0.6236</t>
+  </si>
+  <si>
+    <t>4.0446</t>
+  </si>
+  <si>
+    <t>4838/10254</t>
+  </si>
+  <si>
+    <t>3.1622</t>
+  </si>
+  <si>
+    <t>4738/7717</t>
+  </si>
+  <si>
+    <t>0.7939</t>
+  </si>
+  <si>
+    <t>0.6210</t>
+  </si>
+  <si>
+    <t>4.0901</t>
+  </si>
+  <si>
+    <t>5864/10711</t>
+  </si>
+  <si>
+    <t>3.2471</t>
+  </si>
+  <si>
+    <t>5440/7658</t>
+  </si>
+  <si>
+    <t>0.8027</t>
+  </si>
+  <si>
+    <t>0.6314</t>
+  </si>
+  <si>
+    <t>4.0282</t>
+  </si>
+  <si>
+    <t>6812/10357</t>
+  </si>
+  <si>
+    <t>3.2336</t>
+  </si>
+  <si>
+    <t>5638/7818</t>
+  </si>
+  <si>
+    <t>0.7838</t>
+  </si>
+  <si>
+    <t>0.6063</t>
+  </si>
+  <si>
+    <t>3.3286</t>
+  </si>
+  <si>
+    <t>6252/10337</t>
+  </si>
+  <si>
+    <t>2.6091</t>
+  </si>
+  <si>
+    <t>5384/7596</t>
+  </si>
+  <si>
+    <t>0.7981</t>
+  </si>
+  <si>
+    <t>4.0293</t>
+  </si>
+  <si>
+    <t>5249/10343</t>
+  </si>
+  <si>
+    <t>3.2159</t>
+  </si>
+  <si>
+    <t>5141/7473</t>
+  </si>
+  <si>
+    <t>0.7871</t>
+  </si>
+  <si>
+    <t>0.6155</t>
+  </si>
+  <si>
+    <t>4.0890</t>
+  </si>
+  <si>
+    <t>4343/10775</t>
+  </si>
+  <si>
+    <t>3.2183</t>
+  </si>
+  <si>
+    <t>4690/7692</t>
+  </si>
+  <si>
+    <t>0.6312</t>
+  </si>
+  <si>
+    <t>0.6264</t>
+  </si>
+  <si>
+    <t>3.3673</t>
+  </si>
+  <si>
+    <t>2629/10230</t>
+  </si>
+  <si>
+    <t>2.1252</t>
+  </si>
+  <si>
+    <t>5660/7941</t>
+  </si>
+  <si>
+    <t>0.5579</t>
+  </si>
+  <si>
+    <t>0.6167</t>
+  </si>
+  <si>
+    <t>2.8398</t>
+  </si>
+  <si>
+    <t>3080/9806</t>
+  </si>
+  <si>
+    <t>1.5842</t>
+  </si>
+  <si>
+    <t>5240/7856</t>
+  </si>
+  <si>
+    <t>0.5601</t>
+  </si>
+  <si>
+    <t>0.6211</t>
+  </si>
+  <si>
+    <t>1.9581</t>
+  </si>
+  <si>
+    <t>3672/10047</t>
+  </si>
+  <si>
+    <t>1.0967</t>
+  </si>
+  <si>
+    <t>5835/7748</t>
+  </si>
+  <si>
+    <t>0.5740</t>
+  </si>
+  <si>
+    <t>0.6247</t>
+  </si>
+  <si>
+    <t>2.9629</t>
+  </si>
+  <si>
+    <t>3357/9381</t>
+  </si>
+  <si>
+    <t>1.7007</t>
+  </si>
+  <si>
+    <t>5108/7781</t>
+  </si>
+  <si>
+    <t>0.5440</t>
+  </si>
+  <si>
+    <t>0.6239</t>
+  </si>
+  <si>
+    <t>2.5766</t>
+  </si>
+  <si>
+    <t>2419/8894</t>
+  </si>
+  <si>
+    <t>1.4016</t>
+  </si>
+  <si>
+    <t>5327/7531</t>
+  </si>
+  <si>
+    <t>0.5671</t>
+  </si>
+  <si>
+    <t>0.6147</t>
+  </si>
+  <si>
+    <t>3.0867</t>
+  </si>
+  <si>
+    <t>5403/7882</t>
+  </si>
+  <si>
+    <t>1.7503</t>
+  </si>
+  <si>
+    <t>0.5408</t>
+  </si>
+  <si>
+    <t>0.6267</t>
+  </si>
+  <si>
+    <t>2.3253</t>
+  </si>
+  <si>
+    <t>2164/8971</t>
+  </si>
+  <si>
+    <t>1.2574</t>
+  </si>
+  <si>
+    <t>5509/7725</t>
+  </si>
+  <si>
+    <t>0.5403</t>
+  </si>
+  <si>
+    <t>0.6149</t>
+  </si>
+  <si>
+    <t>3.2905</t>
+  </si>
+  <si>
+    <t>2723/10400</t>
+  </si>
+  <si>
+    <t>1.7779</t>
+  </si>
+  <si>
+    <t>5581/7638</t>
+  </si>
+  <si>
+    <t>0.7990</t>
+  </si>
+  <si>
+    <t>0.6289</t>
+  </si>
+  <si>
+    <t>3.8774</t>
+  </si>
+  <si>
+    <t>5193/11116</t>
+  </si>
+  <si>
+    <t>3.0981</t>
+  </si>
+  <si>
+    <t>5281/7848</t>
   </si>
 </sst>
 </file>
@@ -628,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EEE0-1192-49BC-9381-D8B093C7E0F2}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="E68" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,12 +1557,27 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>36103000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="6">
+        <v>225</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8615</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
@@ -1040,13 +1595,27 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>33441000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="6">
+        <v>207</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8580</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
@@ -1064,13 +1633,27 @@
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7">
+        <v>35244000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="6">
+        <v>221</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8745</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
@@ -1088,12 +1671,27 @@
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>35690000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7">
+        <v>222</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8745</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
@@ -1111,12 +1709,27 @@
       <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>36311000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7">
+        <v>225</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8675</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
@@ -1134,12 +1747,27 @@
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18">
+        <v>36068000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6">
+        <v>222</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8765</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
@@ -1157,12 +1785,27 @@
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>35507000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7">
+        <v>221</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8587</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
@@ -1180,13 +1823,27 @@
       <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="6">
+        <v>32978000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7">
+        <v>205</v>
+      </c>
+      <c r="H20" s="6">
+        <v>8945</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
@@ -1211,13 +1868,27 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6">
+        <v>32766000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7">
+        <v>203</v>
+      </c>
+      <c r="H22" s="6">
+        <v>8717</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
@@ -1235,13 +1906,27 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="6">
+        <v>35422000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7">
+        <v>220</v>
+      </c>
+      <c r="H23" s="6">
+        <v>8858</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
@@ -1259,13 +1944,27 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="6">
+        <v>36057000</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7">
+        <v>224</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8503</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
@@ -1283,13 +1982,27 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="6">
+        <v>37105000</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7">
+        <v>235</v>
+      </c>
+      <c r="H25" s="6">
+        <v>8669</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
@@ -1307,13 +2020,27 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6">
+        <v>32461000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7">
+        <v>202</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8731</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
@@ -1331,13 +2058,27 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="6">
+        <v>35350000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="7">
+        <v>224</v>
+      </c>
+      <c r="H27" s="6">
+        <v>8794</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
@@ -1355,13 +2096,27 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="6">
+        <v>35404000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="7">
+        <v>221</v>
+      </c>
+      <c r="H28" s="7">
+        <v>8686</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
@@ -1379,13 +2134,27 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="6">
+        <v>33331000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="7">
+        <v>211</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8789</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
@@ -1408,13 +2177,27 @@
       <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="6">
+        <v>34271000</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="7">
+        <v>214</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8508</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
@@ -1432,13 +2215,27 @@
       <c r="B32" s="5">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="6">
+        <v>35535000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="7">
+        <v>221</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8683</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
@@ -1456,13 +2253,27 @@
       <c r="B33" s="5">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="6">
+        <v>35810000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="7">
+        <v>226</v>
+      </c>
+      <c r="H33" s="7">
+        <v>8858</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
@@ -1480,13 +2291,27 @@
       <c r="B34" s="5">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="6">
+        <v>28705000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="7">
+        <v>174</v>
+      </c>
+      <c r="H34" s="7">
+        <v>8591</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
@@ -1504,13 +2329,27 @@
       <c r="B35" s="5">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="6">
+        <v>34442000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="7">
+        <v>214</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8544</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
@@ -1528,13 +2367,27 @@
       <c r="B36" s="5">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="6">
+        <v>35719000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7">
+        <v>220</v>
+      </c>
+      <c r="H36" s="7">
+        <v>8726</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
@@ -1552,13 +2405,27 @@
       <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="6">
+        <v>33689000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="7">
+        <v>212</v>
+      </c>
+      <c r="H37" s="7">
+        <v>8678</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
@@ -1576,13 +2443,6 @@
       <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
       <c r="J38" s="6">
         <v>4</v>
       </c>
@@ -1598,10 +2458,6 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="L39" s="3"/>
     </row>
@@ -1609,13 +2465,27 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="6">
+        <v>23797000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="7">
+        <v>149</v>
+      </c>
+      <c r="H40" s="7">
+        <v>7389</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
@@ -1633,13 +2503,27 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41">
+        <v>17811000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="7">
+        <v>110</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6736</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
@@ -1657,13 +2541,27 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="6">
+        <v>12373000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="7">
+        <v>77</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6630</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
@@ -1681,13 +2579,27 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="6">
+        <v>18866000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="7">
+        <v>118</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6679</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
@@ -1705,13 +2617,27 @@
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="6">
+        <v>15043000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="7">
+        <v>94</v>
+      </c>
+      <c r="H44" s="7">
+        <v>6243</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
@@ -1729,13 +2655,27 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="6">
+        <v>19659000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="7">
+        <v>121</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6886</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
@@ -1753,13 +2693,27 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="6">
+        <v>13878000</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="7">
+        <v>87</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6466</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
@@ -1777,13 +2731,27 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="6">
+        <v>20141000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="7">
+        <v>124</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6483</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
@@ -2057,10 +3025,21 @@
       <c r="B59" s="4">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7"/>
-      <c r="I59" s="3"/>
+      <c r="E59" s="7">
+        <v>22500000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="7">
+        <v>225</v>
+      </c>
+      <c r="H59">
+        <v>6770</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="K59" t="s">
         <v>13</v>
       </c>
@@ -2075,9 +3054,21 @@
       <c r="B60" s="4">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="3"/>
+      <c r="E60">
+        <v>20700000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="7">
+        <v>207</v>
+      </c>
+      <c r="H60">
+        <v>6783</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="K60" t="s">
         <v>13</v>
       </c>
@@ -2092,9 +3083,21 @@
       <c r="B61" s="4">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="I61" s="3"/>
+      <c r="E61">
+        <v>22100000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="7">
+        <v>221</v>
+      </c>
+      <c r="H61">
+        <v>6894</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="K61" t="s">
         <v>13</v>
       </c>
@@ -2109,9 +3112,21 @@
       <c r="B62" s="4">
         <v>12</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="3"/>
+      <c r="E62">
+        <v>22198000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="7">
+        <v>222</v>
+      </c>
+      <c r="H62">
+        <v>6794</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="K62" t="s">
         <v>13</v>
       </c>
@@ -2126,9 +3141,21 @@
       <c r="B63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63">
+        <v>22500000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="7">
+        <v>225</v>
+      </c>
+      <c r="H63">
+        <v>6817</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K63" t="s">
         <v>13</v>
       </c>
@@ -2143,9 +3170,21 @@
       <c r="B64" s="4">
         <v>14</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="E64">
+        <v>22200000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="7">
+        <v>222</v>
+      </c>
+      <c r="H64">
+        <v>6791</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="K64" t="s">
         <v>13</v>
       </c>
@@ -2160,9 +3199,21 @@
       <c r="B65" s="4">
         <v>15</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="3"/>
+      <c r="E65">
+        <v>22100000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="7">
+        <v>221</v>
+      </c>
+      <c r="H65">
+        <v>6722</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="K65" t="s">
         <v>13</v>
       </c>
@@ -2177,9 +3228,21 @@
       <c r="B66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="I66" s="3"/>
+      <c r="E66">
+        <v>20495000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="7">
+        <v>205</v>
+      </c>
+      <c r="H66">
+        <v>6955</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="K66" t="s">
         <v>13</v>
       </c>
@@ -2200,9 +3263,21 @@
       <c r="B68" s="4">
         <v>17</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
-      <c r="I68" s="3"/>
+      <c r="E68">
+        <v>20300000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="7">
+        <v>203</v>
+      </c>
+      <c r="H68">
+        <v>6803</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="K68" t="s">
         <v>13</v>
       </c>
@@ -2217,9 +3292,21 @@
       <c r="B69" s="4">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
-      <c r="I69" s="3"/>
+      <c r="E69">
+        <v>22000000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="7">
+        <v>220</v>
+      </c>
+      <c r="H69">
+        <v>6970</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="K69" t="s">
         <v>13</v>
       </c>
@@ -2234,9 +3321,21 @@
       <c r="B70" s="4">
         <v>19</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="I70" s="3"/>
+      <c r="E70">
+        <v>22400000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="7">
+        <v>224</v>
+      </c>
+      <c r="H70">
+        <v>6726</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="K70" t="s">
         <v>13</v>
       </c>
@@ -2251,9 +3350,21 @@
       <c r="B71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
-      <c r="I71" s="3"/>
+      <c r="E71">
+        <v>23492000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="7">
+        <v>235</v>
+      </c>
+      <c r="H71">
+        <v>6856</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="K71" t="s">
         <v>13</v>
       </c>
@@ -2268,9 +3379,21 @@
       <c r="B72" s="4">
         <v>21</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
-      <c r="I72" s="3"/>
+      <c r="E72">
+        <v>20198000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="7">
+        <v>202</v>
+      </c>
+      <c r="H72">
+        <v>6759</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="K72" t="s">
         <v>13</v>
       </c>
@@ -2285,9 +3408,21 @@
       <c r="B73" s="4">
         <v>22</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="I73" s="3"/>
+      <c r="E73">
+        <v>22400000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="7">
+        <v>224</v>
+      </c>
+      <c r="H73">
+        <v>6896</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="K73" t="s">
         <v>13</v>
       </c>
@@ -2302,9 +3437,21 @@
       <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="I74" s="3"/>
+      <c r="E74">
+        <v>22100000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="7">
+        <v>221</v>
+      </c>
+      <c r="H74">
+        <v>6800</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K74" t="s">
         <v>13</v>
       </c>
@@ -2319,9 +3466,21 @@
       <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="3"/>
+      <c r="E75">
+        <v>21100000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="7">
+        <v>211</v>
+      </c>
+      <c r="H75">
+        <v>6915</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="K75" t="s">
         <v>13</v>
       </c>
@@ -2343,9 +3502,21 @@
       <c r="B77" s="5">
         <v>25</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="3"/>
+      <c r="E77">
+        <v>21400000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="7">
+        <v>214</v>
+      </c>
+      <c r="H77">
+        <v>6778</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K77" t="s">
         <v>13</v>
       </c>
@@ -2361,9 +3532,21 @@
         <v>26</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="3"/>
+      <c r="E78">
+        <v>22094000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="7">
+        <v>221</v>
+      </c>
+      <c r="H78">
+        <v>6807</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="K78" t="s">
         <v>13</v>
       </c>
@@ -2379,9 +3562,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
-      <c r="I79" s="3"/>
+      <c r="E79">
+        <v>22600000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="7">
+        <v>226</v>
+      </c>
+      <c r="H79">
+        <v>6988</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="K79" t="s">
         <v>13</v>
       </c>
@@ -2397,9 +3592,21 @@
         <v>28</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="3"/>
+      <c r="E80">
+        <v>17400000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="7">
+        <v>174</v>
+      </c>
+      <c r="H80">
+        <v>6663</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="K80" t="s">
         <v>13</v>
       </c>
@@ -2415,9 +3622,21 @@
         <v>29</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
-      <c r="I81" s="3"/>
+      <c r="E81">
+        <v>21400000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="7">
+        <v>214</v>
+      </c>
+      <c r="H81">
+        <v>6663</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="K81" t="s">
         <v>13</v>
       </c>
@@ -2433,9 +3652,21 @@
         <v>30</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
-      <c r="I82" s="3"/>
+      <c r="E82">
+        <v>21998000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="7">
+        <v>220</v>
+      </c>
+      <c r="H82">
+        <v>6843</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="K82" t="s">
         <v>13</v>
       </c>
@@ -2451,9 +3682,21 @@
         <v>31</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
-      <c r="I83" s="3"/>
+      <c r="E83">
+        <v>21200000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="7">
+        <v>212</v>
+      </c>
+      <c r="H83">
+        <v>6845</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="K83" t="s">
         <v>13</v>
       </c>
@@ -2469,9 +3712,6 @@
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
-      <c r="I84" s="3"/>
       <c r="K84" t="s">
         <v>13</v>
       </c>
@@ -2485,18 +3725,27 @@
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="7"/>
-      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="5">
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="3"/>
+      <c r="E86">
+        <v>14900000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" s="7">
+        <v>149</v>
+      </c>
+      <c r="H86">
+        <v>6997</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="K86" t="s">
         <v>13</v>
       </c>
@@ -2512,9 +3761,21 @@
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
-      <c r="I87" s="3"/>
+      <c r="E87">
+        <v>11000000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G87" s="7">
+        <v>110</v>
+      </c>
+      <c r="H87">
+        <v>6918</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K87" t="s">
         <v>13</v>
       </c>
@@ -2530,9 +3791,21 @@
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="3"/>
+      <c r="E88">
+        <v>7700000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="7">
+        <v>77</v>
+      </c>
+      <c r="H88">
+        <v>6965</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="K88" t="s">
         <v>13</v>
       </c>
@@ -2548,9 +3821,21 @@
         <v>36</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
-      <c r="I89" s="3"/>
+      <c r="E89">
+        <v>11800000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" s="7">
+        <v>118</v>
+      </c>
+      <c r="H89">
+        <v>6922</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="K89" t="s">
         <v>13</v>
       </c>
@@ -2566,9 +3851,21 @@
         <v>37</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
-      <c r="I90" s="3"/>
+      <c r="E90">
+        <v>9400000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="7">
+        <v>94</v>
+      </c>
+      <c r="H90">
+        <v>6677</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="K90" t="s">
         <v>13</v>
       </c>
@@ -2584,9 +3881,21 @@
         <v>38</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
-      <c r="I91" s="3"/>
+      <c r="E91">
+        <v>12100000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="7">
+        <v>121</v>
+      </c>
+      <c r="H91">
+        <v>6897</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="K91" t="s">
         <v>13</v>
       </c>
@@ -2602,9 +3911,21 @@
         <v>39</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
-      <c r="I92" s="3"/>
+      <c r="E92">
+        <v>8700000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" s="7">
+        <v>87</v>
+      </c>
+      <c r="H92">
+        <v>6875</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K92" t="s">
         <v>13</v>
       </c>
@@ -2620,9 +3941,21 @@
         <v>40</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
-      <c r="I93" s="3"/>
+      <c r="E93">
+        <v>12400000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G93" s="7">
+        <v>124</v>
+      </c>
+      <c r="H93">
+        <v>6949</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="K93" t="s">
         <v>13</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB8B06-124C-4857-930D-3C0AC42CAEE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6FBD7-151C-4460-8C77-E416A1D15114}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{EC152A6D-9151-47AE-85CD-1B8604A27C27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="249">
   <si>
     <t>1st node to die</t>
   </si>
@@ -763,6 +763,21 @@
   </si>
   <si>
     <t>5281/7848</t>
+  </si>
+  <si>
+    <t>0.6282</t>
+  </si>
+  <si>
+    <t>4.0424</t>
+  </si>
+  <si>
+    <t>5828/10402</t>
+  </si>
+  <si>
+    <t>3.1950</t>
+  </si>
+  <si>
+    <t>5432/7644</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EEE0-1192-49BC-9381-D8B093C7E0F2}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E68" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="F74" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2443,6 +2458,27 @@
       <c r="B38" s="5">
         <v>32</v>
       </c>
+      <c r="C38" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38">
+        <v>34998000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="7">
+        <v>220</v>
+      </c>
+      <c r="H38" s="7">
+        <v>8659</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
@@ -3712,6 +3748,21 @@
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
+      <c r="E84">
+        <v>22000000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" s="7">
+        <v>220</v>
+      </c>
+      <c r="H84">
+        <v>6889</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="K84" t="s">
         <v>13</v>
       </c>
